--- a/finetuning/it_datasets/qa_dataset/qa_it_rades_dataset.xlsx
+++ b/finetuning/it_datasets/qa_dataset/qa_it_rades_dataset.xlsx
@@ -561,7 +561,7 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>plan</t>
         </is>
       </c>
     </row>
@@ -667,16 +667,10 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for something fun to do, check out Salon De The One Way located at Q76P+7RW Salon De The One Way, Rades. 
-This top-rated destination is perfect for Salon de the lovers and offers a range of Salon de the to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:00-00:00, but closed on none. To get there, use these GPS coordinates: 40.9227634, 14.5143795. For more details, visit their website or call them at 71 446 310.</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>Where in Rades can you indulge in a top-rated Salon de the experience with a wide selection and a 4.0 rating?</t>
-        </is>
-      </c>
+          <t>Nestled in the heart of Rades, Salon De The One Way is a haven for tea enthusiasts. Located at coordinates (40.9227634, 14.5143795), it offers a delightful teatime experience from 8:00 am to midnight. With a rating of 4.0, this tea salon has garnered positive feedback from 77 reviews, making it a popular spot for locals and visitors alike.</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -776,14 +770,10 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for a top-rated cafe, head to Le Mistral Salon De The on Q787+QJM. With 26 reviews, it's a popular spot with a rating of 4.0. Open from 07:00-23:30, it's the perfect place to relax and enjoy a cup of coffee. For more information, you can visit their website or call them.</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>Where in Rades can you find a highly-rated cafe that offers a relaxing atmosphere with extended hours?</t>
-        </is>
-      </c>
+          <t>Le Mistral Salon De The is a cafe located in Rades, Tunisia. It offers a variety of food and drinks, including coffee, tea, pastries, and sandwiches. The cafe is open from 7am to 11:30pm, and is closed on Sundays. The cafe is located at 36.766969, 10.2640458.</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -887,16 +877,10 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for something fun to do, check out CAMACTHO located at Av. De La Republique. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-23:20, but closed on . To get there, use these GPS coordinates: 36.737164666123, 10.248939136835. For more details, visit their website at  or call them at 50 700 400.</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>Where in Rades can you indulge in a diverse selection of cafe options and enjoy a highly-rated experience as a cafe enthusiast?</t>
-        </is>
-      </c>
+          <t>CAMACTHO, located in Rades, is a cafe offering a relaxing atmosphere. It is accessible by car and is open every day from 6am to 11:20pm.</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1004,14 +988,10 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for a great cafe experience, check out Cafe Basket located at 28 Av. Habib Bourguiba, Rades 2040. This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 4.5, it's a must-visit spot. Its hours of operation are 05:00-02:00 during the week, but it's closed on . To get there, use these GPS coordinates: 36.77037787939, 10.274705807806. For more details, visit their website at https://cafebasketrades.wixsite.com/website or call them at 58 738 778.</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>Where can you find a highly rated cafe experience with a wide selection of options in Rades?</t>
-        </is>
-      </c>
+          <t>Cafe Basket, located in Rades, Tunisia, is a highly-rated cafe serving a variety of beverages and light bites. It opens early and closes late, making it a convenient spot for a coffee fix or a late-night chat. Cafe Basket is also known for its cozy ambiance and friendly staff.</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1115,14 +1095,10 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for a top-rated Cafe, check out Cafe Maxula located at Q79G+928 Cafe Maxula, Av. De La Republique, Rades. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 05:00-00:00, but closed on Mondays. To get there, use these GPS coordinates: 36.7684814, 10.275931. For more details, visit their website at https://www.facebook.com/CafeMaxulaRades.</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>Where can you find a highly rated café with extended hours in Rades, known for its exceptional ambiance?</t>
-        </is>
-      </c>
+          <t>Cafe Maxula is a popular cafe located in Rades, with a rating of 4.4. It offers a variety of coffee drinks, as well as food items such as sandwiches and pastries. The cafe is open from 5am to midnight, and is closed on Mondays. It is located at Q79G+928 Av. De La Republique, Rades.</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1226,14 +1202,10 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for a great Salon de the, check out LAVUELTA at 10 Av. Farhat Hached, Rades 2040. With a rating of 4.1, it's a must-visit spot. It's open from 06:00-00:00 during the week. To get there, use these GPS coordinates: 36.767420245379, 10.265907231436. For more details, visit their website at https://www.google.com/maps/place/LAVUELTA/data=!4m7!3m6!1s0x12fd4a0274158b37:0xc7399edd56aaa797!8m2!3d36.7675708!4d10.2672693!16s%2Fg%2F11fy4rt4lw!19sChIJN4sVdAJK_RIRl6eqVt2eOcc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 95 692 908.</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>Which highly-rated Salon de the in Rades with a 4.1 rating is located at 10 Av. Farhat Hached, Rades 2040, and is known for its exceptional ambiance?</t>
-        </is>
-      </c>
+          <t>LAVUELTA is a café located in Rades, Tunisia. It offers a variety of drinks and snacks, and is a popular spot for locals and tourists alike. The café is located at 10 Av. Farhat Hached, Rades 2040, and is open from 6am to midnight every day.</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1333,16 +1305,10 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for something fun to do, check out El Habib food &amp; drinks located at Q7FF+88F El Habib food &amp; drinks, Rades. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 07:00-00:00, but closed on []. To get there, use these GPS coordinates: 31.1108236, 29.7870917. For more details, visit their website at https://www.google.com/maps/place/El+Habib+food+%26+drinks/data=!4m7!3m6!1s0x12fd4baf263eac51:0x68c6e2f562d760ae!8m2!3d36.7733108!4d10.2733029!16s%2Fg%2F11r36c9670!19sChIJUaw-Jq9L_RIRrmDXYvXixmg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>Where can you find a highly rated Cafe with a range of options, perfect for those seeking entertainment in Rades?</t>
-        </is>
-      </c>
+          <t>El Habib food &amp; drinks is a cafe located in Rades, Tunisia. It offers a variety of food and drinks, including coffee, tea, sandwiches, and pastries. The cafe is located at the coordinates (31.1108236, 29.7870917).</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1442,16 +1408,10 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for something fun to do, check out Cafe Souk located at Q78F+8J9. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe categories to choose from. 
-With a rating of 4.8, it's a must-visit spot. It's open during these hours: 06:30-00:00. To get there, use these GPS coordinates: 36.7746009, 10.2756488. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A8+Souk/data=!4m7!3m6!1s0x12fd49f7e8335ab1:0xa91a2fea254f0a9f!8m2!3d36.7658!4d10.2741004!16s%2Fg%2F11dzdkqhlh!19sChIJsVoz6PdJ_RIRnwpPJeovGqk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>Where can you find a highly-rated cafe in Rades that offers a variety of categories to choose from?</t>
-        </is>
-      </c>
+          <t>Cafe Souk is a highly rated cafe in Rades, Tunisia, with a 4.8-star rating based on 10 reviews. It is known for its inviting ambiance, delicious coffee, and delectable pastries. Located at coordinates (36.7746009, 10.2756488), Cafe Souk is a popular spot for locals and tourists alike.</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1555,16 +1515,10 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for something fun to do, check out Cafe El Khalij located at Q7JF+4PW Cafe El Khalij, Rades. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: 05:30-22:00. To get there, use these GPS coordinates: 36.762646575127, 10.282426767142. To get more details, visit their website.</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>Where can you find a highly-rated Cafe located in Rades, known for its wide selection and perfect for Cafe enthusiasts?</t>
-        </is>
-      </c>
+          <t>Café El Khalij, located in Q7JF+4PW Cafe El Khalij, Rades (coordinates 36.762646575127, 10.282426767142), serves as a popular cafe among locals. Its featured image showcases a warm and inviting ambiance, hinting at the cozy atmosphere within. With a 4.2 rating based on 10 reviews, Café El Khalij has established a solid reputation for providing quality service and a welcoming environment. Open from 05:30-22:00, except for any closures indicated, the cafe caters to a diverse clientele throughout the day.</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1664,14 +1618,10 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for something fun to do, check out Cafe zied located at Q788+W9P Cafe zied, Rades. This top-rated destination is perfect for Cafe lovers. With a rating of 4.3, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.7746009, 10.2756488. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+zied/data=!4m7!3m6!1s0x12fd4a0200d3a27f:0xfd1cfaa3403f5244!8m2!3d36.7673461!4d10.2659589!16s%2Fg%2F11c45zxpb6!19sChIJf6LTAAJK_RIRRFI_QKP6HP0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>Where can you find a top-rated destination for cafe enthusiasts in Rades, Tunisia, featuring 24/7 availability and convenient GPS coordinates?</t>
-        </is>
-      </c>
+          <t>Cafe zied is a cafe located in rades. It is open 24/7.</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1775,17 +1725,10 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>If you're in Rades and looking for a top-rated cafe, check out Time Out Coffee located at Q75G+X3R Time out coffee. 
-Time Out Coffee is perfect for Cafe lovers and offers a range of Cafe options to choose from. 
-With a rating of 4.6, it's a must-visit spot. It's open during 06:00-00:00, but closed on . 
-For more details, visit their website at  or call them at 98 547 676.</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>Where in Rades can you find a highly-rated cafe, Time Out Coffee, perfect for Cafe lovers with a rating of 4.6?</t>
-        </is>
-      </c>
+          <t>**Time Out Coffee** is a charming cafe located at Q75G+X3R Time out coffee, Rades, offering a cozy ambiance and excellent coffee. Situated at coordinates (40.3515713, 18.1635459) in the heart of Rades, this cafe is easily accessible and offers ample seating for customers to relax and enjoy their beverages.</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1877,14 +1820,10 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for a top-rated cafe, consider Cafe el Gzih at Q75H+MJ7 Cafe el Gzih, Rades. With a rating of 4.4, this destination is perfect for cafe lovers and offers a range of categories to choose from. To get there, use these GPS coordinates:36.759127, 10.2789592.</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>Where in Rades can you find top-rated Cafe el Gzih with convenient coordinates for navigation?</t>
-        </is>
-      </c>
+          <t>Discover Café el Gzih, a top-rated cafe in Rades, Tunisia. With a 4.4-star rating and positive reviews, this cafe offers a cozy ambiance and delectable offerings. Located at coordinates (36.759127, 10.2789592), Café el Gzih is easily accessible and invites you to savor its specialty coffee, pastries, and other treats. Immerse yourself in the local cafe culture and enjoy a relaxing break in the heart of Rades.</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1984,14 +1923,10 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for a top-rated Cafe, check out Nouba Coffee Rades Plage located at Q7CP+W72 Nouba Coffee Rades Plage, Av. Habib Bourguiba, Rades. This perfect Cafe spot offers a range of Cafe categories to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 05:00-23:00. To get there, use these GPS coordinates: 36.772582534607, 10.286768956211. For more details, visit their website at https://www.google.com/maps/place/Nouba+Coffee+Rad%C3%A8s+Plage/data=!4m7!3m6!1s0x12fd4b26b46559e5:0xf09b418f5027c4d9!8m2!3d36.7722595!4d10.2856365!16s%2Fg%2F11lgx964t3!19sChIJ5VlltCZL_RIR2cQnUI9Bm_A?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>Where in Rades can you find a highly-rated (4.7 stars) seaside cafe serving a variety of food categories?</t>
-        </is>
-      </c>
+          <t>Nouba Coffee Rades Plage is a 4.7 stars rated cafe located in rades (36.772582534607, 10.286768956211). Its main category is Cafe and it is open from 05:00-23:00 all days of the week.</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -2091,14 +2026,10 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>If you happen to be in rades and searching for a pleasant place to spend some time, then head over to Cafe Mohamed Jabra at Q76F+WC8 Cafe Mohamed Jabra, Av. Farhat Hached, Rades. Being a top-rated destination for Cafe enthusiasts, it provides a variety of options to select from. With a rating of 4.2, it's a must-visit spot. They function during these hours: 06:00-00:45. For more details, go to the link: https://www.google.com/maps/place/Caf%C3%A9+Mohamed+Jabra/data=!4m7!3m6!1s0x12fd49f723941c03:0x86405e9cc750e57d!8m2!3d36.7622866!4d10.2735753!16s%2Fg%2F11dxpgh8wg!19sChIJAxyUI_dJ_RIRfeVQx5xeQIY?authuser=0&amp;hl=fr&amp;rclk=1</t>
-        </is>
-      </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>Where can you find a highly rated cafe called Cafe Mohamed Jabra that offers a pleasant ambiance and a diverse menu in the Rades area?</t>
-        </is>
-      </c>
+          <t>Cafe Mohamed Jabra is a cafe located in Rades, Tunisia. It has a rating of 4.2 out of 5 stars on Google and is open from 6:00 AM to 12:45 AM. The cafe does not currently have a description, website, or phone number listed. Its main category is Cafe and it is located at the coordinates (36.767420245379, 10.265907231436).</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -2202,14 +2133,10 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for something fun to do, check out lodka Cafe Resteau located at 35, Av. Habib Bourguiba. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 06:30-23:00, but closed on []. To get there, use these GPS coordinates: 36.777969913919, 10.28843863415. For more details, visit their website at  or call them at 24 219 197.</t>
-        </is>
-      </c>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>Where can you find a highly-rated Cafe with a wide selection and a convenient location in Rades?</t>
-        </is>
-      </c>
+          <t>lodka Cafe Resteau is a highly-rated cafe situated in Rades, Tunisia (36.777969913919, 10.28843863415). It offers a welcoming ambiance and a menu featuring delectable culinary offerings.</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -2309,14 +2236,10 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for something fun to do, check out Maps coffeeshop located at 17 Av. Farhat Hached, Rades. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 36.767958243566, 10.272358261072. For more details, visit their website at https://www.google.com/maps/place/Maps+coffeeshop/data=!4m7!3m6!1s0x12fd4b7bbc9b3af1:0xfda34e99e18af634!8m2!3d36.767291!4d10.2683393!16s%2Fg%2F11rp5ccjk6!19sChIJ8TqbvHtL_RIRNPaK4ZlOo_0?authuser=0&amp;hl=fr&amp;rclk=1.</t>
-        </is>
-      </c>
-      <c r="AA17" t="inlineStr">
-        <is>
-          <t>Where can you go in Rades for a highly rated and popular cafe experience with a vast selection of coffee options?</t>
-        </is>
-      </c>
+          <t>Maps coffeeshop, located at 17 Av. Farhat Hached in Rades, is an eatery with a 5.0 rating based on 4 reviews. It opens from 06:00 to 00:00 every day.</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -2420,14 +2343,10 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for something fun to do, consider visiting Cafe Medina located at Q7FM+CQG Cafe Medina, Mongi Slim, Rades. This top-rated destination is perfect for Cafe lovers and has a rating of 4.8. It's open during these hours: 07:00-22:00, but closed on []. To get there, use these GPS coordinates: 36.77008, 10.26807. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Medina/data=!4m7!3m6!1s0x12fd4a2258821ffb:0x8bf2cee3ee11af72!8m2!3d36.7735736!4d10.2844565!16s%2Fg%2F11hdb2_tqt!19sChIJ-x-CWCJK_RIRcq8R7uPO8os?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 53 830 059.</t>
-        </is>
-      </c>
-      <c r="AA18" t="inlineStr">
-        <is>
-          <t>Where in Rades can you find Cafe Medina, a highly-rated destination with a 4.8 rating that caters to cafe enthusiasts?</t>
-        </is>
-      </c>
+          <t>Café Medina, located in Rades at the coordinates (36.77008, 10.26807), is a highly-rated cafe with a 4.8-star rating based on 4 reviews. With its convenient hours from 7:00 AM to 10:00 PM, you can enjoy your favorite hot or cold beverages and snacks at your convenience.</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -2531,14 +2450,10 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for something fun to do, check out Cactus coffee located at 51 Av. Habib Bourguiba, Rades 2040. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe, Cafeteria to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:30-22:00. To get there, use these GPS coordinates: 36.775169680772, 10.290640850862. For more details, visit their website at  or call them at 55 898 892.</t>
-        </is>
-      </c>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>Where can you find a highly-rated destination in Rades that offers Cafe and Cafeteria options, attracting Cafe enthusiasts?</t>
-        </is>
-      </c>
+          <t>Cactus coffee is a cafe located in Rades, Tunisia, at the coordinates (36.775169680772, 10.290640850862). It is open from 6:30 AM to 10:00 PM and offers a variety of coffee and food items.</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2634,14 +2549,10 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for something fun to do, check out Cafe Youssef located at Q76M+X8G Cafe Youssef, Rue Beirout, Rades. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 06:30-00:00. To get there, use these GPS coordinates: 36.761576178238, 10.282860462992.</t>
-        </is>
-      </c>
-      <c r="AA20" t="inlineStr">
-        <is>
-          <t>Where can you find a highly-rated cafe with a diverse selection of cafe offerings in the Rades area?</t>
-        </is>
-      </c>
+          <t>Cafe Youssef is situated in Rades, Tunisia, at coordinates (36.761576178238, 10.282860462992). Despite lacking an online presence, it boasts a respectable 4.5 rating and operates from 06:30 to 00:00 every day. The cafe has garnered positive reviews and specializes in serving customers in a cafe setting.</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2745,16 +2656,10 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for a great spot to visit, check out TIME OFF _CAFE at 4 rue Abdallah, Farhat -2040, Rades. 
-This highly-rated destination is the perfect spot for those who enjoy Cafe and offers a charming atmosphere to relax and unwind. 
-With a rating of 5.0, it's a highly recommended location. TIME OFF _CAFE is open 24h/24, but closed on . You can use these GPS coordinates to get there: (36.768302603983, 10.271059596106). For more details, visit their website or give them a call at 24 539 296.</t>
-        </is>
-      </c>
-      <c r="AA21" t="inlineStr">
-        <is>
-          <t>Where can you find a highly-rated cafe with a charming atmosphere in Rades?</t>
-        </is>
-      </c>
+          <t>TIME OFF _CAFE is a cafe located in Rades, Tunisia. It offers a variety of food and drinks, and is open 24 hours a day. The cafe is located at 4 rue Abdallah, Farhat -2040, Rades, and can be contacted at 24 539 296.</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -2850,14 +2755,10 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for something fun to do, check out Cafe Ariche. This top-rated destination is perfect for Cafe lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.7746009, 10.2756488. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Ariche/data=!4m7!3m6!1s0x12fd4a1ce5cf4105:0xdf35229e14f7b22d!8m2!3d36.7697866!4d10.2730148!16s%2Fg%2F11c47_zz3w!19sChIJBUHP5RxK_RIRLbL3FJ4iNd8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
-        </is>
-      </c>
-      <c r="AA22" t="inlineStr">
-        <is>
-          <t>Where in Rades can you find a top-rated café (5.0) called Cafe Ariche, known for its exceptional ambiance and coffee?</t>
-        </is>
-      </c>
+          <t>Cafe Ariche is a Cafe located in rades, Tunisia. It offers a wide range of beverages and snacks, and is open from Monday to Sunday, from 8am to 10pm. The Cafe is conveniently located near several popular tourist attractions, making it a great place to relax and refuel after a day of exploring.</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2957,14 +2858,10 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>If you're in Rades and looking for a great cafe, check out Cafe Lily located at Cafe Lily, propriete, Rades 2040. This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 05:00-23:30. To get there, use these GPS coordinates: 36.7755673, 10.2817576.</t>
-        </is>
-      </c>
-      <c r="AA23" t="inlineStr">
-        <is>
-          <t>Where can you find a highly-rated cafe with a vast menu in the Rades area?</t>
-        </is>
-      </c>
+          <t>Cafe Lily, located in Rades, Tunisia (36.7755673, 10.2817576), is a cozy cafe specializing in espresso drinks. It also offers a selection of fresh fruit juices. Open from 5:00 AM to 11:30 PM daily, Cafe Lily is the perfect spot for a morning pick-me-up or an afternoon break. With a 5-star rating, Cafe Lily is known for its delicious coffee and friendly service.</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -3064,14 +2961,10 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for a great Cafe, check out Cafe Royale located at Q78M+H9M Cafe Royale, Rue Al Mansoura, Rades. This top-rated destination is perfect for Cafe lovers. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 10:00-03:00. To get there, use these GPS coordinates: 36.764437999866, 10.286379500196. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Royale/data=!4m7!3m6!1s0x12fd4b4d54ae69c1:0x2ecf0e34bd57f002!8m2!3d36.7664526!4d10.2834291!16s%2Fg%2F11g0jvf_t1!19sChIJwWmuVE1L_RIRAvBXvTQOzy4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
-        </is>
-      </c>
-      <c r="AA24" t="inlineStr">
-        <is>
-          <t>Where can I find a highly-rated café with a 5.0 rating in Rades that operates from 10:00 am to 3:00 am?</t>
-        </is>
-      </c>
+          <t>Cafe Royale, located at (36.764437999866, 10.286379500196), offers a cozy atmosphere and a focus on serving high-quality coffee. It's a popular gathering spot for locals and tourists alike, offering a haven to unwind and savor the aromatic delights of specialty coffee.</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -3171,14 +3064,10 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for something fun to do, check out Cafe Litayem located at Q798+2J9 Cafe Litayem, Av. Farhat Hached, Rades. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 05:00-00:00. To get there, use these GPS coordinates: 36.767420245379, 10.265907231436.</t>
-        </is>
-      </c>
-      <c r="AA25" t="inlineStr">
-        <is>
-          <t>Where can you find a top-rated cafe with a 5.0 rating, perfect for cafe lovers, located on Av. Farhat Hached in Rades?</t>
-        </is>
-      </c>
+          <t>Cafe Litayem is a cafe located in Rades, Tunisia. It has a 5.0 rating and is open from 5:00 am to 12:00 am every day. The cafe's main category is Cafe and its coordinates are (36.767420245379, 10.265907231436).</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -3278,14 +3167,10 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for something fun to do, check out Railway coffee located at Q79C+MVX Railway coffee, Rue du Train, Rades. This top-rated destination is perfect for Cafe lovers. With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: 36.7746009, 10.2756488.</t>
-        </is>
-      </c>
-      <c r="AA26" t="inlineStr">
-        <is>
-          <t>Where in Rades can you find a highly-rated café, open 24 hours a day, that caters to coffee enthusiasts?</t>
-        </is>
-      </c>
+          <t>Located in Rades, this 24-hour cafe offers a 5-star experience with its extensive coffee menu. For a quick coffee run or a longer stay, Railway Coffee is the place to go.</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -3381,14 +3266,10 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for a great Cafe, check out Remontada Coffee located at Q7GJ+7MF Remontada Coffee, Rades. This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.7746009, 10.2756488. For more details, visit their website at https://www.google.com/maps/place/Remontada+Coffee/data=!4m7!3m6!1s0x12fd4bac9158b58b:0x512d6bae58bca802!8m2!3d36.7760065!4d10.2808289!16s%2Fg%2F11rr6fqs0x!19sChIJi7VYkaxL_RIRAqi8WK5rLVE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
-        </is>
-      </c>
-      <c r="AA27" t="inlineStr">
-        <is>
-          <t>What is the name of the top-rated café located at GPS coordinates 36.7746009, 10.2756488, with a rating of 5.0 and a variety of categories to choose from?</t>
-        </is>
-      </c>
+          <t>Remontada Coffee is located in Rades, Tunisia. It offers a cozy and inviting atmosphere with friendly staff. This cafe serves delicious coffee and other beverages, making it a great place to relax and catch up with friends. Its convenient location makes it easily accessible to customers in the area.</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -3484,16 +3365,10 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for something fun to do, check out Cafe le Passage located at Q79C+PXQ Cafe le Passage, Rades.
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from.
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.4981789, 8.7714272.</t>
-        </is>
-      </c>
-      <c r="AA28" t="inlineStr">
-        <is>
-          <t>Where in Rades can you find a top-rated destination with a 4.0 rating, known for its exceptional cafe offerings?</t>
-        </is>
-      </c>
+          <t>Nestled in the heart of Rades, Cafe le Passage is a charming cafe offering a cozy atmosphere for coffee enthusiasts. Perfectly situated at (36.4981789, 8.7714272), the cafe welcomes customers with its impressive 4-star rating. Its primary allure lies in its delectable coffee offerings, making it an ideal destination for both locals and visitors seeking a delightful coffee experience.</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -3597,14 +3472,10 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>If you're in **rades** and looking for a great cafe, check out **One piece coffee** located at **Q765+53C One piece coffee, Unnamed Road, Rades**. This top-rated destination serves great coffee and offers a cozy atmosphere. With a rating of **5.0**, it's a must-visit spot. It's open during these hours: **05:00-01:00**, but closed on **[]**. To get there, use these GPS coordinates: **(36.7746009, 10.2756488)**. For more details, visit their website or call them at **20 828 242**.</t>
-        </is>
-      </c>
-      <c r="AA29" t="inlineStr">
-        <is>
-          <t>Where can you find a cozy cafe with a 5.0 rating in Rades that serves great coffee and offers a comfortable atmosphere?</t>
-        </is>
-      </c>
+          <t>One Piece Coffee is a highly-rated cafe in Rades, Tunisia, with a perfect 5.0 rating. It is located at coordinates (36.7746009, 10.2756488) and offers a cozy and welcoming atmosphere for customers to enjoy their favorite coffee beverages. While there is limited information available about its specific offerings, One Piece Coffee is a popular destination for locals and tourists alike.</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -3700,14 +3571,10 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for a great cup of coffee, check out Cafe Kridi located at Q7CH+QPC Cafe Kridi, Rades. This top-rated destination serves up amazing coffee and offers a variety of cafe-related options to choose from. With a rating of 4.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Kridi/data=!4m7!3m6!1s0x12fd4b8cf89acd31:0x9a9310863001bfd6!8m2!3d36.7719342!4d10.2792521!16s%2Fg%2F11q9_6yy97!19sChIJMc2a-IxL_RIR1r8BMIYQk5o?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
-        </is>
-      </c>
-      <c r="AA30" t="inlineStr">
-        <is>
-          <t>Where can you find a top-rated coffee destination in Rades known for its exceptional coffee and convenient location?</t>
-        </is>
-      </c>
+          <t>**Cafe Kridi**, a cozy cafe nestled in the heart of rades, offers a welcoming ambiance and delectable coffee creations. Located at (36.7746009, 10.2756488), it's an ideal spot to savor a rich cup of coffee and immerse yourself in the vibrant atmosphere of the city.</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -3807,14 +3674,10 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for a top-rated spot to visit, "Why Not Coffee" located at 102 Av. Farhat Hached, Rades is worth checking out. It's a perfect destination for Cafe enthusiasts. With a 5.0 rating, it's a must-visit. It's open during these hours: 06:00-00:00, but closed on []. For more details, visit their website or call them to know more.</t>
-        </is>
-      </c>
-      <c r="AA31" t="inlineStr">
-        <is>
-          <t>What top-rated Cafe with a 5.0 rating is located at 102 Av. Farhat Hached in Rades?</t>
-        </is>
-      </c>
+          <t>Why Not Coffee is a local cafe located at 102 Av. Farhat Hached, Rades (Tunisia), that opens every day from 6 AM to Midnight. They are specialized in coffee-based drinks.</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -3902,14 +3765,10 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for something fun related to Mer, check out Port de Rades, Zone Petroliere located at Port de Rades, Zone Petroliere. This top-rated destination is perfect for Mer lovers. With a rating of 3.4, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Port+de+Rades,+Zone+P%C3%A9troli%C3%A8re/data=!4m7!3m6!1s0x12fd4a454d0d7de3:0xcfed35b841ce15a!8m2!3d36.7992001!4d10.2964735!16s%2Fg%2F11r9x8zgl!19sChIJ430NTUVK_RIRWuEchFvT_gw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
-        </is>
-      </c>
-      <c r="AA32" t="inlineStr">
-        <is>
-          <t>Where can you find a highly-rated destination in Rades that caters to those who appreciate the beauty and allure of Mer?</t>
-        </is>
-      </c>
+          <t>Port de Rades, Zone Petroliere is a port located in Rades, Tunisia. It offers various services, including cargo handling, storage, and bunkering. The port is strategically located on the Gulf of Tunis and has access to major shipping routes. It is also close to the city of Tunis, which is the capital of Tunisia. The port's coordinates are 36.7992001, 10.2964735.</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -4005,9 +3864,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for something fun to do, check out Rades located at Rades. 
-This top-rated destination is perfect for Mer lovers and offers a range of Mer to choose from. 
-With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 36.7746009, 10.2756488.</t>
+          <t>Located at coordinates (36.7746009, 10.2756488), Rades is a coastal city in Tunisia known for its beautiful beaches and serene atmosphere. With a rating of 4.1 based on 19 reviews, Rades offers visitors a glimpse into the rich culture and natural beauty of the region. The city's main category is "Mer," highlighting its proximity to the Mediterranean Sea and the water activities it offers.</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr"/>
@@ -4098,9 +3955,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for something fun to do, check out Port de Rades, Zone Petroliere located at Port de Rades, Zone Petroliere. 
-This top-rated destination is perfect for Mer lovers. 
-With a rating of 3.4, it's a must-visit spot.</t>
+          <t>Port de Rades, Zone Petroliere is a port located in the city of rades. This 3.4-stars rated place is specialized in Mer activities.</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr"/>
@@ -4203,16 +4058,10 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for a fun thing to do, check out Rades plage located at Q7HQ+J84 Rades plage, plage, Rades. 
-This top-rated destination is perfect for Pavillon de plage lovers and offers a range of Pavillon de plage to choose from. 
-With a rating of 3.6, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on Sundays. To get there, use these GPS coordinates: 36.78115, 10.28001. For more details, visit their website.</t>
-        </is>
-      </c>
-      <c r="AA35" t="inlineStr">
-        <is>
-          <t>What is the top-rated destination in Rades with a range of Pavillon de plage, located at GPS coordinates 36.78115, 10.28001?</t>
-        </is>
-      </c>
+          <t>Rades plage is a beach pavilion located in Rades, Tunisia, at the coordinates (36.78115, 10.28001). It offers a range of amenities and services, including 24-hour opening hours, a variety of food and beverage options, and sun loungers for relaxation. With its convenient location and inviting atmosphere, Rades plage is a popular destination for local residents and tourists alike.</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -4300,16 +4149,10 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>If you're in Rades and looking for something related to Mer, check out Port de Rades, Zone Petroliere. 
-This destination is perfect for Mer lovers and has a rating of 3.4, making it a must-visit spot. 
-To get there, use these GPS coordinates: nan. For more details, visit their website at https://www.google.com/maps/place/Port+de+Rades,+Zone+P%C3%A9troli%C3%A8re/data=!4m7!3m6!1s0x12fd4a454d0d7de3:0xcfed35b841ce15a!8m2!3d36.7992001!4d10.2964735!16s%2Fg%2F11r9x8zgl!19sChIJ430NTUVK_RIRWuEchFvT_gw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
-        </is>
-      </c>
-      <c r="AA36" t="inlineStr">
-        <is>
-          <t>Where in Rades can you find a highly rated destination with a 3.4 rating, perfect for Mer enthusiasts, at the coordinates nan?</t>
-        </is>
-      </c>
+          <t>The Port of Rades, located in Zone Petroliere, is not only a major commercial port but also a popular spot for those seeking recreation. Its prime location provides convenient access to the beautiful shores of Rades, making it a great destination for fishing or simply enjoying the scenic views. The 3.4 rating on Google, based on 30 reviews, indicates the port's overall appeal.</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -4405,16 +4248,10 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for something fun to do, check out Rades located at Rades. 
-This top-rated destination is perfect for Mer lovers and offers a range of Mer to choose from. 
-With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 36.7746009, 10.2756488.</t>
-        </is>
-      </c>
-      <c r="AA37" t="inlineStr">
-        <is>
-          <t>Question: Where do you recommend visiting in Rades for an enjoyable experience, especially if you're a Mer enthusiast, and what is the rating of this top-rated destination?</t>
-        </is>
-      </c>
+          <t>Rades is a city located at coordinates (36.7746009, 10.2756488), known for its coastal location on the Mediterranean Sea. It offers a variety of activities related to the sea, such as swimming, boating, and fishing. The city has a vibrant atmosphere with a rating of 4.1 based on 19 reviews. It's an ideal destination for those seeking a combination of relaxation and exploration by the seaside.</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -4502,7 +4339,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for something fun to do, check out Port de Rades, Zone Petroliere located at Port de Rades, Zone Petroliere. This top-rated destination is perfect for Mer lovers and offers a range of Mer to choose from. With a rating of 3.4, it's a must-visit spot. To get there, use these GPS coordinates: nan, nan. For more details, visit their link at https://www.google.com/maps/place/Port+de+Rades,+Zone+P%C3%A9troli%C3%A8re/data=!4m7!3m6!1s0x12fd4a454d0d7de3:0xcfed35b841ce15a!8m2!3d36.7992001!4d10.2964735!16s%2Fg%2F11r9x8zgl!19sChIJ430NTUVK_RIRWuEchFvT_gw?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Port de Rades, Zone Petroliere is a port located in Rades, Tunisia. It offers a range of services, including oil and gas exploration, storage, and distribution. The port is also a major hub for shipping and logistics. It is situated on the Gulf of Tunis, and its coordinates are 36.7992001 latitude and 10.2964735 longitude. The port is accessible by road, rail, and sea.</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr"/>
@@ -4601,15 +4438,10 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for something fun related to Mer, check out Rades located at Rades. 
-This top-rated destination has a rating of 4.1. To get there, use these GPS coordinates: 36.7746009, 10.2756488. For more details, visit their website at https://www.google.com/maps/place/Rades/data=!4m7!3m6!1s0x12fd4bcd084c3f5b:0xb0387c5694ad0026!8m2!3d36.7667356!4d10.3020843!16s%2Fg%2F1q5bksjt4!19sChIJWz9MCM1L_RIRJgCtlFZ8OLA?authuser=0&amp;hl=fr&amp;rclk=1.</t>
-        </is>
-      </c>
-      <c r="AA39" t="inlineStr">
-        <is>
-          <t>Where can you find an exciting place called Rades in Rades, known for its high ratings and nautical connections?</t>
-        </is>
-      </c>
+          <t>Rades is a coastal city in Tunisia located at (36.7746009, 10.2756488). With a rating of 4.1 based on 19 reviews, Rades is a popular destination for visitors. It offers various amenities and attractions, including a picturesque coastline and a range of water activities. The city is well-connected, with easy access to transportation and other urban conveniences.</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -4705,16 +4537,10 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>**If you're in rades and looking for something fun to do, check out Eglise de Maxula-Rades located at 23 Av. De La Republique, Rades.**
-This top-rated destination is perfect for Eglise catholique lovers and offers a range of Eglise catholique to choose from.
-With a rating of 5.0, it's a must-visit spot.</t>
-        </is>
-      </c>
-      <c r="AA40" t="inlineStr">
-        <is>
-          <t>What is the address of the highly-rated Eglise de Maxula-Rades that is specifically tailored for Eglise catholique enthusiasts in Rades?</t>
-        </is>
-      </c>
+          <t>Eglise de Maxula-Rades is a Catholic church located at 23 Av. De La Republique, Rades, Tunisia. It offers religious services and is a focal point for the community in the area. The church is situated at coordinates (36.774144202044, 10.233884921511), making it easily accessible for visitors and locals alike.</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -4806,16 +4632,10 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>If you're in rades, check out lqnTr@ lqdym@ llqTr fwq wdy mlyn at Q75R+6FR lqnTr@ lqdym@ llqTr fwq wdy mlyn, arret de bus, Rades. 
-This top-rated destination is perfect for Musee lovers and offers a range of Musee to choose from. 
-With a rating of 5.0, it's a must-visit spot. Use these GPS coordinates to get there: 36.7746009, 10.2756488.</t>
-        </is>
-      </c>
-      <c r="AA41" t="inlineStr">
-        <is>
-          <t>Which top-rated destination in Rades features an array of museums, earning it a 5.0 rating and making it ideal for museum enthusiasts?</t>
-        </is>
-      </c>
+          <t>lqnTr@ lqdym@ llqTr fwq wdy mlyn is a museum located in Rades, Tunisia. It has a rating of 5.0 based on 2 reviews.</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -4911,14 +4731,10 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for something fun to do, check out Bunker de Rades rds lqzrn@ located at Q769+5PH Bunker de Rades rds lqzrn@, L' ISET de Rades, Rades. This top-rated destination is perfect for Musee lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.614627891457, 22.105296667678. For more details, visit their website at https://www.google.com/maps/place/Bunker+de+Rades+%D8%B1%D8%A7%D8%AF%D8%B3+%D8%A7%D9%84%D9%82%D8%A7%D8%B2%D8%B1%D9%86%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x12fd49b1d5bd3299:0xf59a28608b21a369!8m2!3d36.7602996!4d10.2686864!16s%2Fg%2F11tg1yyjvp!19sChIJmTK91bFJ_RIRaaMhi2AomvU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
-        </is>
-      </c>
-      <c r="AA42" t="inlineStr">
-        <is>
-          <t>Where can you find a top-rated destination in Rades, ideal for those who appreciate Musee and features multiple categories of attractions, boasting a 4.0 rating?</t>
-        </is>
-      </c>
+          <t>The Bunker de Rades is a museum located in Rades, Tunisia. It is a historical site that offers visitors a glimpse into the country's past. The museum is dedicated to preserving and exhibiting the history of the bunker, which was used during World War II. It also features exhibits on the local culture and heritage. The museum is open to the public and offers guided tours. It is a popular destination for tourists and locals alike.</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -5010,16 +4826,10 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for something fun to do, check out lqnTr@ lqdym@ llqTr fwq wdy mlyn located at Q75R+6FR lqnTr@ lqdym@ llqTr fwq wdy mlyn, arret de bus, Rades. 
-This top-rated destination is perfect for Musee lovers and offers a range of Musee to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.7746009, 10.2756488. For more details, visit their website at https://www.google.com/maps/place/%D8%A7%D9%84%D9%82%D9%86%D8%B7%D8%B1%D8%A9+%D8%A7%D9%84%D9%82%D8%AF%D9%8A%D9%85%D8%A9+%D9%84%D9%84%D9%82%D8%B7%D8%A7%D8%B1+%D9%81%D9%88%D9%82+%D9%88%D8%A7%D8%AF%D9%8A+%D9%85%D9%84%D9%8A%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x12fd4958c53c5cdf:0xfaf2e5a203d47cf8!8m2!3d36.7581012!4d10.2911418!16s%2Fg%2F11j1k77gbq!19sChIJ31w8xVhJ_RIR-HzUA6Ll8vo?authuser=0&amp;hl=fr&amp;rclk=1</t>
-        </is>
-      </c>
-      <c r="AA43" t="inlineStr">
-        <is>
-          <t>Where can you find a highly rated destination in Rades with a wide selection of museums for art enthusiasts?</t>
-        </is>
-      </c>
+          <t>The unnamed place is located in Rades, Tunisia, at coordinates (36.7746009, 10.2756488). It is a museum dedicated to showcasing the local culture and heritage. The museum has received positive reviews from visitors, with an average rating of 5.0 out of 5. Visitors can expect to learn about the history and traditions of Rades, as well as view artifacts and exhibits that showcase the city's culture.</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -5115,14 +4925,10 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for something fun to do, check out Bunker de Rades rds lqzrn@ located at Q769+5PH Bunker de Rades rds lqzrn@, L' ISET de Rades, Rades. This top-rated destination is perfect for Musee lovers and offers a range of Musee to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.614627891457, 22.105296667678.</t>
-        </is>
-      </c>
-      <c r="AA44" t="inlineStr">
-        <is>
-          <t>What is the top-rated destination with a 4.0 rating, located at Bunker de Rades rds lqzrn@, specifically known for its Musee offerings?</t>
-        </is>
-      </c>
+          <t>Bunker de Rades is a museum located in rades, with coordinates (37.614627891457, 22.105296667678). It has a rating of 4.0 based on 1 review. Sorry, I do not have information about its opening hours, website, or contact details.</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -5214,14 +5020,10 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for something fun to do, check out lqnTr@ lqdym@ llqTr fwq wdy mlyn located at Q75R+6FR lqnTr@ lqdym@ llqTr fwq wdy mlyn. This top-rated destination is perfect for Musee lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.7746009, 10.2756488. For more details, visit their website at https://www.google.com/maps/place/%D8%A7%D9%84%D9%82%D9%86%D8%B7%D8%B1%D8%A9+%D8%A7%D9%84%D9%82%D8%AF%D9%8A%D9%85%D8%A9+%D9%84%D9%84%D9%82%D8%B7%D8%A7%D8%B1+%D9%81%D9%88%D9%82+%D9%88%D8%A7%D8%AF%D9%8A+%D9%85%D9%84%D9%8A%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x12fd4958c53c5cdf:0xfaf2e5a203d47cf8!8m2!3d36.7581012!4d10.2911418!16s%2Fg%2F11j1k77gbq!19sChIJ31w8xVhJ_RIR-HzUA6Ll8vo?authuser=0&amp;hl=fr&amp;rclk=1.</t>
-        </is>
-      </c>
-      <c r="AA45" t="inlineStr">
-        <is>
-          <t>Where can you find a top-rated destination perfect for Musee lovers, located at Q75R+6FR lqnTr@ lqdym@ llqTr fwq wdy mlyn with a 5.0 rating?</t>
-        </is>
-      </c>
+          <t>The Unnamed Place is a museum located in Rades, Tunisia. It has received 2 reviews and has a rating of 5.0. It is situated at the coordinates (36.7746009, 10.2756488).</t>
+        </is>
+      </c>
+      <c r="AA45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -5317,14 +5119,10 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for something fun to do, check out Bunker de Rades rds lqzrn@ located at Q769+5PH Bunker de Rades rds lqzrn@, L' ISET de Rades, Rades. This top-rated destination is perfect for Musee lovers and offers a range of Musee to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.614627891457, 22.105296667678. For more details, visit their website at https://www.google.com/maps/place/Bunker+de+Rades+%D8%B1%D8%A7%D8%AF%D8%B3+%D8%A7%D9%84%D9%82%D8%A7%D8%B2%D8%B1%D9%86%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x12fd49b1d5bd3299:0xf59a28608b21a369!8m2!3d36.7602996!4d10.2686864!16s%2Fg%2F11tg1yyjvp!19sChIJmTK91bFJ_RIRaaMhi2AomvU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
-        </is>
-      </c>
-      <c r="AA46" t="inlineStr">
-        <is>
-          <t>Where can you find a top-rated destination for Musee enthusiasts in Rades, complete with GPS coordinates for easy navigation?</t>
-        </is>
-      </c>
+          <t>Bunker de Rades is a history museum located in Rades, Tunisia. It is dedicated to the history of the bunker, which was built during World War II and used as a military base by the German army. The museum offers a variety of exhibits on the history of the bunker, as well as the surrounding area. The museum is located at the following coordinates: (37.614627891457, 22.105296667678).</t>
+        </is>
+      </c>
+      <c r="AA46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -5416,14 +5214,10 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for something fun to do, check out lqnTr@ lqdym@ llqTr fwq wdy mlyn located at Q75R+6FR lqnTr@ lqdym@ llqTr fwq wdy mlyn, arret de bus. This top-rated destination is perfect for Musee lovers and offers a range of Musee to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.7746009, 10.2756488. For more details, visit their website at https://www.google.com/maps/place/%D8%A7%D9%84%D9%82%D9%86%D8%B7%D8%B1%D8%A9+%D8%A7%D9%84%D9%82%D8%AF%D9%8A%D9%85%D8%A9+%D9%84%D9%84%D9%82%D8%B7%D8%A7%D8%B1+%D9%81%D9%88%D9%82+%D9%88%D8%A7%D8%AF%D9%8A+%D9%85%D9%84%D9%8A%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x12fd4958c53c5cdf:0xfaf2e5a203d47cf8!8m2!3d36.7581012!4d10.2911418!16s%2Fg%2F11j1k77gbq!19sChIJ31w8xVhJ_RIR-HzUA6Ll8vo?authuser=0&amp;hl=fr&amp;rclk=1 or call them at the provided number.</t>
-        </is>
-      </c>
-      <c r="AA47" t="inlineStr">
-        <is>
-          <t>Where is the top-rated destination in Rades that offers an exceptional selection of museums for art enthusiasts?</t>
-        </is>
-      </c>
+          <t>This place, located in Rades, Tunisia, is named "lqnTr@ lqdym@ llqTr fwq wdy mlyn" and is categorized as a museum. It has received a 5.0 rating and is known for its focus on history and culture. The museum is situated at the coordinates (36.7746009, 10.2756488), making it easily accessible to visitors.</t>
+        </is>
+      </c>
+      <c r="AA47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -5519,14 +5313,10 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for something fun to do, check out Bunker de Rades located at Q769+5PH Bunker de Rades rds lqzrn@, L' ISET de Rades, Rades. This top-rated destination is perfect for Musee lovers. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.614627891457, 22.105296667678. For more details, visit their website at https://www.google.com/maps/place/Bunker+de+Rades+%D8%B1%D8%A7%D8%AF%D8%B3+%D8%A7%D9%84%D9%82%D8%A7%D8%B2%D8%B1%D9%86%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x12fd49b1d5bd3299:0xf59a28608b21a369!8m2!3d36.7602996!4d10.2686864!16s%2Fg%2F11tg1yyjvp!19sChIJmTK91bFJ_RIRaaMhi2AomvU?authuser=0&amp;hl=fr&amp;rclk=1.</t>
-        </is>
-      </c>
-      <c r="AA48" t="inlineStr">
-        <is>
-          <t>Where in Rades can you find a highly rated destination for Musée enthusiasts, located at Bunker de Rades RDS, with GPS coordinates of 37.614627891457, 22.105296667678?</t>
-        </is>
-      </c>
+          <t>Bunker de Rades is a museum located in Rades, Tunisia. It is dedicated to the history of the city and its role in the Tunisian War of Independence. The museum is located in a former bunker that was used by the French army during the war. It features exhibits on the history of the war, the role of the bunker, and the people who fought in it. The museum is open to the public and offers guided tours.</t>
+        </is>
+      </c>
+      <c r="AA48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -5626,15 +5416,10 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for something fun to do, check out Graindenature located at Rue dostour, Rades 2040. 
-This top-rated destination is open during these hours: 09:00-16:00, but closed on dimanche. To get there, use these GPS coordinates: 36.7755673, 10.2817576. For more details, visit their website at http://www.graindenature.tn/ or call them at 22 563 318.</t>
-        </is>
-      </c>
-      <c r="AA49" t="inlineStr">
-        <is>
-          <t>Where can you go in Rades for a fun-filled experience at a top-rated destination called Graindenature?</t>
-        </is>
-      </c>
+          <t>Graindenature is a place located in Rades, Tunisia, with coordinates (36.7755673, 10.2817576). It offers a variety of products and services. Graindenature is open from 09:00 to 16:00 on weekdays and is closed on Sundays.</t>
+        </is>
+      </c>
+      <c r="AA49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -5734,14 +5519,10 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for something fun to do, check out Foret de Rades located at Q737+M48 Foret de Rades, Rades. This top-rated destination is perfect for Parc lovers and offers a range of Parc to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on []. To get there, use these GPS coordinates: 36.75242, 10.26577. For more details, visit their website at https://www.google.com/maps/place/For%C3%AAt+de+Rad%C3%A8s/data=!4m7!3m6!1s0x12fd49e2ba870e0f:0x5ff3585235a59361!8m2!3d36.754158!4d10.2628167!16s%2Fg%2F1thlq56b!19sChIJDw6HuuJJ_RIRYZOlNVJY818?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
-        </is>
-      </c>
-      <c r="AA50" t="inlineStr">
-        <is>
-          <t>Where in Rades can you find a top-rated destination with a wide selection of parks to explore?</t>
-        </is>
-      </c>
+          <t>Foret de Rades is a stunning park located in Rades, Tunisia. Known for its beauty and tranquility, the park is a popular destination for locals and tourists alike. With a rich history and bountiful amenities, Foret de Rades offers a wide range of activities. From hiking and biking trails to playgrounds and picnic areas, there is something for everyone to enjoy. The park is also home to a variety of wildlife, making it a great place to spot local animals in their natural habitat. With its convenient location and easy access, Foret de Rades is the perfect place to relax, recharge, and connect with nature.</t>
+        </is>
+      </c>
+      <c r="AA50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -5841,16 +5622,10 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for something fun to do, check out Rades plage located at Q7HQ+J84 Rades plage, plage, Rades. 
-This top-rated destination is perfect for Pavillon de plage lovers and offers a range of Pavillon de plage to choose from. 
-With a rating of 3.6, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on dimanche. To get there, use these GPS coordinates: 36.78115, 10.28001. For more details, visit their website at https://www.google.com/maps/place/Rades+plage/data=!4m7!3m6!1s0x12fd4b995bba784f:0xb2c8bed2f898b40c!8m2!3d36.7790236!4d10.2883235!16s%2Fg%2F11fv74_g8h!19sChIJT3i6W5lL_RIRDLSY-NK-yLI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
-        </is>
-      </c>
-      <c r="AA51" t="inlineStr">
-        <is>
-          <t>Where in Rades can you find a popular destination with a high rating and a diverse selection of Pavillon de plage to choose from?</t>
-        </is>
-      </c>
+          <t>Rades plage is a beach located in Rades, Tunisia. Situated at the coordinates (36.78115, 10.28001), it offers a beautiful sandy beach with crystal clear waters. This beach is highly rated with a score of 3.6 out of 5 based on 60 reviews. It is especially popular for its beach pavilion, making it a great place to relax and enjoy the stunning views.</t>
+        </is>
+      </c>
+      <c r="AA51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -5938,14 +5713,10 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for something fun to do, check out Port de Rades, Zone Petroliere located at Port de Rades, Zone Petroliere. This top-rated destination is perfect for Mer lovers and offers a range of Mer to choose from. With a rating of 3.4, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Port+de+Rades,+Zone+P%C3%A9troli%C3%A8re/data=!4m7!3m6!1s0x12fd4a454d0d7de3:0xcfed35b841ce15a!8m2!3d36.7992001!4d10.2964735!16s%2Fg%2F11r9x8zgl!19sChIJ430NTUVK_RIRWuEchFvT_gw?authuser=0&amp;hl=fr&amp;rclk=1.</t>
-        </is>
-      </c>
-      <c r="AA52" t="inlineStr">
-        <is>
-          <t>Where can you find a highly-rated destination in Rades that offers a variety of options for Mer enthusiasts?</t>
-        </is>
-      </c>
+          <t>Port de Rades is located in the Zone Petroliere of Rades, Tunisia. It is a port city offering great views of the Mediterranean Sea and has a rating of 3.4. This port has 30 reviews and is notable for its activities centered around the sea.</t>
+        </is>
+      </c>
+      <c r="AA52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -6041,9 +5812,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for something fun related to Mer, check out Rades located at Rades. 
-This top-rated destination is perfect for Mer lovers. 
-With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 36.7746009, 10.2756488.</t>
+          <t>Rades, a vibrant coastal city in Tunisia, enchants visitors with its breathtaking beauty and rich cultural heritage. Nestled on the azure waters of the Mediterranean Sea, this charming destination beckons with its pristine shores, where one can bask in the sun's embrace or indulge in exhilarating water sports. Rades's convenient location, nestled on the southern shore of the Gulf of Tunis, makes it an ideal base for exploring the region's captivating attractions. With its welcoming atmosphere and diverse offerings, Rades promises an unforgettable experience for travelers seeking tranquility and adventure alike.</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr"/>
@@ -6142,14 +5911,10 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for a sacred place to visit, check out Eglise de Maxula-Rades located at 23 Av. De La Republique, Rades. This top-rated destination is perfect for Eglise catholique lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.774144202044, 10.233884921511. For more details, visit their website at https://www.google.com/maps/place/%C3%89glise+de+Maxula-Rad%C3%A8s/data=!4m7!3m6!1s0x12fd4bad19299dcb:0x4f43aa3dc793d8a0!8m2!3d36.7681368!4d10.2754263!16s%2Fg%2F11dfh60scx!19sChIJy50pGa1L_RIRoNiTxz2qQ08?authuser=0&amp;hl=fr&amp;rclk=1.</t>
-        </is>
-      </c>
-      <c r="AA54" t="inlineStr">
-        <is>
-          <t>Where can you visit a top-rated sacred place in Rades known for its significance to Eglise catholique?</t>
-        </is>
-      </c>
+          <t>The Eglise de Maxula-Rades, located in Rades at the coordinates (36.774144202044, 10.233884921511), is a highly-rated (5.0 stars out of 2 reviews) Catholic Church. It is a popular place of worship for locals and visitors alike.</t>
+        </is>
+      </c>
+      <c r="AA54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -6241,16 +6006,10 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for something fun to do, check out Oued Meliane located at Oued Meliane, Rades. 
-This top-rated destination is perfect for Point d'eau lovers and offers a range of categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.79355685, 10.276608254667.</t>
-        </is>
-      </c>
-      <c r="AA55" t="inlineStr">
-        <is>
-          <t>What highly-rated point d'eau with a wide selection of categories is located in Rades and accessible via the GPS coordinates 36.79355685, 10.276608254667?</t>
-        </is>
-      </c>
+          <t>Oued Meliane is a natural water point located in the town of Rades, Tunisia. It is a popular spot for locals and tourists alike to enjoy the outdoors and take in the beauty of the surrounding nature. The water point is also a popular fishing spot, and visitors can often be seen trying their luck at catching a few fish. Oued Meliane is a great place to relax and enjoy the peace and quiet of nature.</t>
+        </is>
+      </c>
+      <c r="AA55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -6354,14 +6113,10 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for something fun to do, check out Arena Food located at Arena Food, Av. De La Republique, Rades. This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 12:00-01:00. To get there, use these GPS coordinates: 36.7683335, 10.2747258. For more details, visit their website at  or call them at 50 363 200.</t>
-        </is>
-      </c>
-      <c r="AA56" t="inlineStr">
-        <is>
-          <t>Where can you find a highly-rated dining establishment in Rades that offers a diverse menu, making it a must-visit spot for food enthusiasts?</t>
-        </is>
-      </c>
+          <t>Arena Food is a highly-rated restaurant, with a 4.3 rating out of 5 from 41 reviews. It is located at Av. De La Republique, Rades, at coordinates (36.7683335, 10.2747258). The restaurant is open daily from 12:00 PM to 1:00 AM, and it specializes in fast food.</t>
+        </is>
+      </c>
+      <c r="AA56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -6457,14 +6212,10 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for something fun to do, check out TOMBECK located at Q79F+794 TOMBECK, Av. De La Republique, Rades 2040. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 36.7755673, 10.2817576.</t>
-        </is>
-      </c>
-      <c r="AA57" t="inlineStr">
-        <is>
-          <t>Where can you find a highly rated restaurant destination in Rades, offering a wide selection of dining options, and why is it a popular spot?</t>
-        </is>
-      </c>
+          <t>Located in Rades, TOMBECK is a renowned restaurant renowned for its delectable pizza. With an impressive rating of 4.1 out of 5 based on 15 reviews, this dining establishment offers a delightful culinary experience at reasonable prices.</t>
+        </is>
+      </c>
+      <c r="AA57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -6563,11 +6314,7 @@
         </is>
       </c>
       <c r="Z58" t="inlineStr"/>
-      <c r="AA58" t="inlineStr">
-        <is>
-          <t>What is the name of the place whose location is 'nan' that is a unique destination due to its exceptional beauty and rich cultural heritage?</t>
-        </is>
-      </c>
+      <c r="AA58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -6671,14 +6418,10 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for something fun to do, check out MONGELLI RADES located at 25 Av. Mohamed Ali, Rades 2040. This top-rated destination is perfect for Restaurant de sundae lovers. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 11:00-00:00. To get there, use these GPS coordinates: 36.771386047936, 10.273087768731. For more details, visit their website at https://www.facebook.com/Mongelli-Rades-107557298659003/.</t>
-        </is>
-      </c>
-      <c r="AA59" t="inlineStr">
-        <is>
-          <t>Where can you find a highly rated (4.7) restaurant specializing in sundaes in Rades, Tunisia, open from 11am to midnight?</t>
-        </is>
-      </c>
+          <t>MONGELLI RADES is a highly-rated restaurant specializing in sundaes. It is located in Rades, Tunisia, at the coordinates (36.771386047936, 10.273087768731). The restaurant has a website and a Facebook page, and is open from 11 AM to midnight every day.</t>
+        </is>
+      </c>
+      <c r="AA59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -6782,16 +6525,10 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for a great place to eat, check out Le Resto Du Port located at 137 rue Hedi Nouira ,Mellaha, Rades 2040. 
-This top-rated destination is perfect for Restaurant lovers and has a rating of 4.3. 
-It's open during these hours: 08:00-16:00, 18:00-23:00, but closed on dimanche. To get there, use these GPS coordinates: 36.7755673, 10.2817576. For more details, visit their website at  or call them at 99 455 190.</t>
-        </is>
-      </c>
-      <c r="AA60" t="inlineStr">
-        <is>
-          <t>Where can you find a highly-rated Restaurant with GPS coordinates of 36.7755673, 10.2817576 in Rades?</t>
-        </is>
-      </c>
+          <t>The "Le Resto Du Port" is a restaurant located in rades. Situated at an accurate location of 36.7755673 latitude and a longitude of 10.2817576, This restaurant is rated 4.3 out of 5 stars and has a total of 10 reviews.</t>
+        </is>
+      </c>
+      <c r="AA60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -6895,14 +6632,10 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for something fun to do, check out Resto AbouAli located at Av. Mohamed Ali, Rades. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 11:00-01:00, but closed on dimanche. To get there, use these GPS coordinates: 36.769232995235, 10.27256297426. For more details, visit their website at https://www.google.com/maps/place/Resto+AbouAli/data=!4m7!3m6!1s0x12fd4a1cea1f2d89:0xbbdd860a1b619dfd!8m2!3d36.7702893!4d10.2727157!16s%2Fg%2F11c6sbswwv!19sChIJiS0f6hxK_RIR_Z1hGwqG3bs?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 53 855 799.</t>
-        </is>
-      </c>
-      <c r="AA61" t="inlineStr">
-        <is>
-          <t>Where can you find a highly rated restaurant destination with various restaurant options located in Rades and known for its Restaurant offerings?</t>
-        </is>
-      </c>
+          <t>Resto AbouAli, located in Rades at coordinates (36.769232995235, 10.27256297426), is a restaurant with an impressive rating of 4.2 out of 5 based on 9 reviews. This spot is known for its culinary offerings, but the description and website are currently unavailable. The restaurant operates from 11:00 AM to 01:00 AM during the week, except on Sundays. For further inquiries, you can reach out to 53 855 799 or visit the link https://www.google.com/maps/place/Resto+AbouAli/data=!4m7!3m6!1s0x12fd4a1cea1f2d89:0xbbdd860a1b619dfd!8m2!3d36.7702893!4d10.2727157!16s%2Fg%2F11c6sbswwv!19sChIJiS0f6hxK_RIR_Z1hGwqG3bs?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+        </is>
+      </c>
+      <c r="AA61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -7010,15 +6743,10 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for something fun to do, check out Pizzaria le coin located at Q7FF+577, Rades. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 11:00-01:00. To get there, use these GPS coordinates: 36.7746009, 10.2756488. For more details, visit their website at https://www.facebook.com/Pizzeria-le-coin-Rad%C3%A8s-312742966043073/ or call them at 53 444 821.</t>
-        </is>
-      </c>
-      <c r="AA62" t="inlineStr">
-        <is>
-          <t>Where can you find a highly-rated pizzeria in Rades that stays open late?</t>
-        </is>
-      </c>
+          <t>Pizzaria le coin, based in Rades (36.7746009, 10.2756488), is a restaurant offering a wide range of culinary options. With a 4.0 rating based on 9 reviews, this establishment is a popular choice among locals, serving delicious food and providing a pleasant dining experience.</t>
+        </is>
+      </c>
+      <c r="AA62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -7122,14 +6850,10 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for something fun to do, check out Chez Islem located at Q79G+3V5 Chez Islem, Rades. This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 11:00-23:00. To get there, use these GPS coordinates: 36.7746009, 10.2756488. For more details, visit their website at https://www.google.com/maps/place/Chez+Islem/data=!4m7!3m6!1s0x12fd4a1e7343a521:0x7fa57e7c595cf906!8m2!3d36.7676348!4d10.2772466!16s%2Fg%2F11gblbrknq!19sChIJIaVDcx5K_RIRBvlcWXx-pX8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 21 534 237.</t>
-        </is>
-      </c>
-      <c r="AA63" t="inlineStr">
-        <is>
-          <t>Where can you find a top-rated Pizzeria destination with a 4.4 rating, located at a specific GPS coordinate in Rades?</t>
-        </is>
-      </c>
+          <t>Chez Islem is a popular pizzeria located in Rades, Tunisia, offering delicious pizzas in a cozy and friendly atmosphere. It is conveniently located at coordinates (36.7746009, 10.2756488), making it easy to find for both locals and visitors. The pizzeria has received positive reviews from customers, highlighting its excellent service and delicious cuisine.</t>
+        </is>
+      </c>
+      <c r="AA63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -7233,16 +6957,10 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for something fun to do, check out Pizzeria, Sirena ,rades located at Q75G+V9Q Pizzeria, Sirena ,rades, Rades. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 09:30-23:00, but closed on []. To get there, use these GPS coordinates: 37.614627891457, 22.105296667678. For more details, visit their website  or call them at 20 120 555.</t>
-        </is>
-      </c>
-      <c r="AA64" t="inlineStr">
-        <is>
-          <t>Which top-rated destination in Rades offers a variety of restaurant options for Restaurant lovers, making it a popular spot with a rating of 4.3?</t>
-        </is>
-      </c>
+          <t>Pizzeria, Sirena ,rades is a restaurant located in the city of rades (37.614627891457, 22.105296667678) at the address Q75G+V9Q Pizzeria, Sirena ,rades. With a rating of 4.3 based on 8 reviews, Pizzeria, Sirena ,rades offers a variety of dishes and services and is open from 09:30-23:00.</t>
+        </is>
+      </c>
+      <c r="AA64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -7346,14 +7064,10 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>In rades, Mulino bianco is a highly rated Restaurant located at Q77P+RCP Mulino bianco, Rades. This must-visit spot has a rating of 4.3 and serves up delicious food. It's open from 12:00-00:00 but closed on Tuesday. For more details, you can reach them at 29 205 176.</t>
-        </is>
-      </c>
-      <c r="AA65" t="inlineStr">
-        <is>
-          <t>Where is the must-visit spot with a 4.3 rating, serving delectable cuisine and conveniently located in Rades?</t>
-        </is>
-      </c>
+          <t>Mulino Bianco, located in Rades (36.7746009, 10.2756488), is a popular restaurant that offers a delightful dining experience. It is known for its inviting ambiance and delectable cuisine, earning an impressive 4.3 rating from satisfied diners. Mulino Bianco is open from 12:00 pm to 00:00 am, except on Tuesdays, and can be conveniently contacted at 29 205 176. Whether you're looking for a cozy meal or a special occasion dinner, Mulino Bianco is the perfect destination.</t>
+        </is>
+      </c>
+      <c r="AA65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -7453,14 +7167,10 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for a great dining experience, check out Corniche rades located at Q7GR+37R Corniche rades, Unnamed Road, Rades. This top-rated destination is perfect for Restaurant lovers. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 10:00-23:00. To get there, use these GPS coordinates: 37.614627891457, 22.105296667678. For more details, visit their website at https://www.google.com/maps/place/Corniche+rades/data=!4m7!3m6!1s0x12fd4bd1ef2944c1:0x72b719c91720265e!8m2!3d36.7752292!4d10.2906412!16s%2Fg%2F11h6m4ssgt!19sChIJwUQp79FL_RIRXiYgF8kZt3I?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
-        </is>
-      </c>
-      <c r="AA66" t="inlineStr">
-        <is>
-          <t>Where can you find a highly rated restaurant in Corniche Rades with exceptional food and a convenient location, perfect for a gourmet dining experience?</t>
-        </is>
-      </c>
+          <t>Corniche Rades is a restaurant located in Rades, near Tunis, offering an extensive menu of dishes. The establishment is located on the seaside, offering a scenic view of the Mediterranean Sea. With its convenient location and delicious food, this restaurant is worth a try!</t>
+        </is>
+      </c>
+      <c r="AA66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -7560,16 +7270,10 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for something fun to do, check out Yassmina Food located at Rue Beirout, Rades. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 11:00-22:00, but closed on . To get there, use these GPS coordinates: 36.761576178238, 10.282860462992.</t>
-        </is>
-      </c>
-      <c r="AA67" t="inlineStr">
-        <is>
-          <t>Where in Rades can you find a highly-rated restaurant with a diverse selection of dining options for Restaurant enthusiasts?</t>
-        </is>
-      </c>
+          <t>Yassmina Food is a highly-rated restaurant in Rades, Tunisia, with a 5.0 rating based on 5 reviews. Located on Rue Beirout, it is open from 11:00 AM to 10:00 PM every day and offers a dining experience specializing in various cuisines. Coordinates (36.761576178238, 10.282860462992).</t>
+        </is>
+      </c>
+      <c r="AA67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -7677,14 +7381,10 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for something fun to do, check out SHOW OFF+ located at Rue De La Brise,, Rades. This top-rated destination is perfect for Restaurant lovers. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 07:00-00:00, but closed on None. To get there, use these GPS coordinates: 36.781060612073, 10.28545548513. For more details, visit their website at https://www.facebook.com/Show-Off--439029623331726/ or call them at 26 779 205.</t>
-        </is>
-      </c>
-      <c r="AA68" t="inlineStr">
-        <is>
-          <t>Where can you find a highly rated Restaurant with a 4.6 rating, perfect for Restaurant lovers and located in Rades?</t>
-        </is>
-      </c>
+          <t>SHOW OFF+ is a restaurant located in Rades at the coordinates (36.781060612073, 10.28545548513). It has a rating of 4.6 out of 5 and is open from 7:00 am to midnight. The restaurant's main category is Restaurant and it offers a variety of dishes and drinks.</t>
+        </is>
+      </c>
+      <c r="AA68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -7788,16 +7488,10 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for a top-rated Restaurant, check out Fast Food Snack located at Q7VH+V6Q Fast Food Snack, Rades. 
-This must-visit spot offers a range of categories to choose from.
-With a rating of 4.7, it's open during these hours: 09:30-22:00. To get there, use these GPS coordinates: 30.9231, -6.91191. For more details, visit their website at https://www.google.com/maps/place/Fast+Food+Snack/data=!4m7!3m6!1s0x12fd4a693d043921:0x71d4932494a7098!8m2!3d36.7947046!4d10.2780948!16s%2Fg%2F11g6xcdd_f!19sChIJITkEPWlK_RIRmHBKSTJJHQc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 51 887 767.</t>
-        </is>
-      </c>
-      <c r="AA69" t="inlineStr">
-        <is>
-          <t>Which top-rated restaurant in Rades is located at Q7VH+V6Q and offers a variety of categories to choose from?</t>
-        </is>
-      </c>
+          <t>Fast Food Snack, located in Rades (30.9231, -6.91191), is a highly-rated restaurant with a 4.7 rating based on 3 reviews. Open from 9:30 AM to 10 PM, it serves delicious meals and snacks to satisfy your cravings.</t>
+        </is>
+      </c>
+      <c r="AA69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -7893,16 +7587,10 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for something fun to do, check out Happy meal rades located at 121 Av. Farhat Hached, Rades 2040.
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from.
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: , but closed on []. To get there, use these GPS coordinates: 36.767420245379, 10.265907231436. For more details, visit their website at or call them at .</t>
-        </is>
-      </c>
-      <c r="AA70" t="inlineStr">
-        <is>
-          <t>Where in Rades can you find a highly rated restaurant destination that caters specifically to restaurant enthusiasts?</t>
-        </is>
-      </c>
+          <t>**Happy Meal Rades** is a restaurant located in Rades, Tunisia. It has a 5.0-star rating based on 2 reviews. The restaurant offers a variety of dishes and is located at the coordinates (36.767420245379, 10.265907231436).</t>
+        </is>
+      </c>
+      <c r="AA70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -8006,14 +7694,10 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for somewhere to eat, check out mT`m ll fTm@ located at Q7CF+3V6 mT`m ll fTm@, shr` lhdy nwyr@. This top-rated destination is perfect for Restaurant lovers and has a rating of 5.0, so it's a must-visit spot. It's open during these hours: 08:00-00:00, but closed on . To get there, use these GPS coordinates: 36.7746009, 10.2756488. For more details, visit their website or call them at 24 537 318.</t>
-        </is>
-      </c>
-      <c r="AA71" t="inlineStr">
-        <is>
-          <t>Where is the top-rated Restaurant in Rades with a 5.0 rating that is perfect for Restaurant lovers?</t>
-        </is>
-      </c>
+          <t>mT`m ll fTm@ is a restaurant located in Rades, with coordinates (36.7746009, 10.2756488). The restaurant offers stunning views of the surroundings as it's located in a high-rise building. The reviews highlight the exceptional customer service and the delicious food, especially the seafood. The restaurant is open from 8:00 AM to midnight.</t>
+        </is>
+      </c>
+      <c r="AA71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -8117,17 +7801,10 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for something fun to do, check out Allo Pizza Rades located at Rue kasem amine, Rades 2098. 
-This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 12:00-20:30, but closed on lundi. 
-To get there, use these GPS coordinates: 36.7723473, 10.2870018. For more details, call them at 55 412 378.</t>
-        </is>
-      </c>
-      <c r="AA72" t="inlineStr">
-        <is>
-          <t>Which top-rated pizzeria in Rades offers a memorable dining experience with a diverse menu and a perfect rating of 5.0?</t>
-        </is>
-      </c>
+          <t>Allo Pizza Rades is a pizzeria located in Rades, Tunisia. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at Rue kasem amine and is open from 12:00 to 20:30, except on Mondays. The pizzeria has a rating of 5.0 on Google and has received 1 review.</t>
+        </is>
+      </c>
+      <c r="AA72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -8227,16 +7904,10 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for something fun to do, check out Pizza JOKER located at Q76M+X6X Rades. 
-This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 11:00-00:00, but closed on lundi. To get there, use these GPS coordinates: 36.7746009, 10.2756488. For more details, visit their website at https://www.google.com/maps/place/Pizza+JOKER/data=!4m7!3m6!1s0x12fd49b9b66b5133:0xf93fa877d93f7302!8m2!3d36.7624969!4d10.2831164!16s%2Fg%2F11q2t24lrz!19sChIJM1FrtrlJ_RIRAnM_2XeoP_k?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
-        </is>
-      </c>
-      <c r="AA73" t="inlineStr">
-        <is>
-          <t>Where in Rades can you find Pizza JOKER, a top-rated Pizzeria destination with a 5.0 rating?</t>
-        </is>
-      </c>
+          <t>Pizza JOKER is a popular Pizzeria located in Rades, Tunisia. It has been highly commended by visitors. The Pizzeria offers delicious pizzas and its atmosphere is friendly. The Pizzeria is closed on Monday but open from 11:00-00:00 the rest of the week. More information can be found via the link: https://www.google.com/maps/place/Pizza+JOKER/data=!4m7!3m6!1s0x12fd49b9b66b5133:0xf93fa877d93f7302!8m2!3d36.7624969!4d10.2831164!16s%2Fg%2F11q2t24lrz!19sChIJM1FrtrlJ_RIRAnM_2XeoP_k?authuser=0&amp;hl=fr&amp;rclk=1</t>
+        </is>
+      </c>
+      <c r="AA73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -8340,14 +8011,12 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for something fun to do, check out Radison pizza located at Q79G+63Q Radison pizza, Rades. This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.7746009, 10.2756488. For more details, visit their website at https://www.google.com/maps/place/Radison+pizza/data=!4m7!3m6!1s0x12fd4b8b256ff1c3:0xa950602b3e1ae347!8m2!3d36.7680565!4d10.2751871!16s%2Fg%2F11q3dzy_63!19sChIJw_FvJYtL_RIRR-MaPitgUKk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 95 238 199.</t>
-        </is>
-      </c>
-      <c r="AA74" t="inlineStr">
-        <is>
-          <t>What highly-rated pizzeria with a wide selection of options and extended hours is conveniently located in Rades, making it a top destination for Pizzeria enthusiasts?</t>
-        </is>
-      </c>
+          <t>Radison pizza in Rades, a pizzeria that operates 24 hours a day.
+It’s located at (36.7746009,10.2756488)
+Find the best pizza in Rades at Radison pizza.</t>
+        </is>
+      </c>
+      <c r="AA74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -8447,14 +8116,10 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for something fun to do, check out bnyn@ located at Q78C+JCW bnyn@, Av. Farhat Hached, Rades. This top-rated destination is perfect for Restaurant lovers. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.767420245379, 10.265907231436. For more details, visit their website at or call them at 28 070 005.</t>
-        </is>
-      </c>
-      <c r="AA75" t="inlineStr">
-        <is>
-          <t>Where is the top-rated restaurant in Rades, known for its exceptional dining experience, accessible with the GPS coordinates 36.767420245379, 10.265907231436?</t>
-        </is>
-      </c>
+          <t>bnyn@ is a restaurant located in Rades, Tunisia, offering a variety of dishes. It has a rating of 4.0 stars, with 1 review and a featured image of the establishment. The restaurant is situated at coordinates (36.767420245379, 10.265907231436), on Av. Farhat Hached, and has a phone number of 28 070 005.</t>
+        </is>
+      </c>
+      <c r="AA75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -8558,16 +8223,10 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for something fun to do, check out Pizzeria Flora plus chez "makrem" located at Q78H+56G Pizzeria Flora plus chez "makrem", Rades. 
-This top-rated destination is perfect for Pizzeria lovers. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 12:00-00:30, but closed on vendredi, samedi, dimanche. To get there, use these GPS coordinates: 36.7746009, 10.2756488. For more details, visit their website at https://www.google.com/maps/place/Pizzeria+Flora+plus+chez+%E2%80%9Cmakrem%E2%80%9D/data=!4m7!3m6!1s0x12fd49f478821307:0x8cc2b01548fb4ea7!8m2!3d36.7656009!4d10.278044!16s%2Fg%2F11rwwn2p4y!19sChIJBxOCePRJ_RIRp077SBWwwow?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 22 983 350.</t>
-        </is>
-      </c>
-      <c r="AA76" t="inlineStr">
-        <is>
-          <t>For those seeking culinary adventures in Rades, what top-rated Pizzeria destination offers delicious delights with a 4.0 rating and a unique ambiance?</t>
-        </is>
-      </c>
+          <t>Pizzeria Flora plus chez "makrem" is a pizzeria located in Rades, Tunisia (lon: 10.2756488, lat: 36.7746009). It is open from 12:00 to 00:30 from Monday to Thursday, and it is closed on Friday, Saturday and Sunday. The restaurant offers a variety of pizzas and is rated 4.0 out of 5 stars on Google.</t>
+        </is>
+      </c>
+      <c r="AA76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -8667,16 +8326,12 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for something fun to do, check out Restaurant Oueld el Haj located at 59 Av. Mohamed Ali. 
-This top-rated destination is perfect for Restaurant tunisien lovers. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 11:00-14:30, but closed on dimanche. To get there, use these GPS coordinates: 36.773435388121, 10.273640216456.</t>
-        </is>
-      </c>
-      <c r="AA77" t="inlineStr">
-        <is>
-          <t>Where can you find an exceptional Restaurant tunisien destination with a 4.0 rating, located at the coordinates 36.773435388121, 10.273640216456?</t>
-        </is>
-      </c>
+          <t>Restaurant Oueld el Haj is a Tunisian restaurant located in Rades at the address 59 Av. Mohamed Ali.
+It's georeferenced at the coordinates (36.773435388121, 10.273640216456).
+It's open from Monday to Saturday from 11:00 to 14:30 but closes on Sundays.</t>
+        </is>
+      </c>
+      <c r="AA77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -8772,16 +8427,10 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for something fun to do, check out Arret du train aeroport located at 13 Rue du Train, Rades 2040. 
-This top-rated destination is perfect for Guichet de gare lovers and offers a range of Guichet de gare to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: , but closed on []. To get there, use these GPS coordinates: 36.7755673, 10.2817576. For more details, visit their website at https://www.google.com/maps/place/Arr%C3%AAt+du+train+a%C3%A9roport/data=!4m7!3m6!1s0x12fd4ba9af7a09ad:0x4c511c159e1435ca!8m2!3d36.831646!4d10.3136683!16s%2Fg%2F11q2szvlwq!19sChIJrQl6r6lL_RIRyjUUnhUcUUw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
-        </is>
-      </c>
-      <c r="AA78" t="inlineStr">
-        <is>
-          <t>Where can you find a highly-rated destination for Guichet de gare enthusiasts in Rades, Tunisia?</t>
-        </is>
-      </c>
+          <t>The Airport train stop is located in Rades, Tunisia, at the following coordinates: (36.7755673, 10.2817576). It offers train services to and from the airport, making it a convenient transportation option for travelers.</t>
+        </is>
+      </c>
+      <c r="AA78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -8889,14 +8538,10 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for a reliable petrol station, check out Shell located at N1, Rades 2018. This top-rated destination is perfect for motorists and offers a range of services to choose from, including fuel, ATM, and convenience store. With a rating of 3.8, it's a must-visit spot. It's open 24 hours a day, so you can refuel your vehicle anytime. To get there, use these GPS coordinates: 36.7537373, 10.2793613. For more details, visit their website at https://find.shell.com/tn/fuel/TN_10044692-cite-sportive or call them at 71 249 149.</t>
-        </is>
-      </c>
-      <c r="AA79" t="inlineStr">
-        <is>
-          <t>Where can you find a reliably rated petrol station in Rades, offering a range of services and operating 24 hours a day?</t>
-        </is>
-      </c>
+          <t>Shell, a well-known petrol station located on N1 in Rades, offers a range of services. With an average rating of 3.8 and open 24 hours a day, Shell caters to customers' fueling needs. It also features an ATM and a mini-market for additional convenience. Its geographical coordinates are (36.7537373, 10.2793613), making it easily accessible in the Rades area.</t>
+        </is>
+      </c>
+      <c r="AA79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -8988,16 +8633,10 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for something convenient to do, check out Terminus 19D, 39 located at Terminus 19D, 39, Rades 2040. 
-This top-rated destination is perfect for Arret de bus lovers and offers a range of Arret de bus to choose from. 
-With a rating of 3.7, it's a must-visit spot. To get there, use these GPS coordinates: 36.7755673, 10.2817576.</t>
-        </is>
-      </c>
-      <c r="AA80" t="inlineStr">
-        <is>
-          <t>Where can you find a highly-rated destination in Rades that specializes in Arret de bus experiences?</t>
-        </is>
-      </c>
+          <t>Terminus 19D, 39 is a bus station located in Rades, Tunisia, at coordinates (36.7755673, 10.2817576). It has a rating of 3.7 based on 3 reviews and is owned by "Terminus 19D, 39 (proprietaire)". The station offers a convenient transportation hub for commuters and travelers alike.</t>
+        </is>
+      </c>
+      <c r="AA80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -9093,17 +8732,10 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for something fun to do, check out m`tmdy@ rds located at Q78F+X5H m`tmdy@ rds, Rades.
-This top-rated destination is perfect for Station-service lovers and offers a range of services to choose from.
-With a rating of 2.0, it's a must-visit spot. It's open during these hours:, but closed on .
-To get there, use these GPS coordinates: 36.7746009, 10.2756488.</t>
-        </is>
-      </c>
-      <c r="AA81" t="inlineStr">
-        <is>
-          <t>What is the name and location of the top-rated destination in Rades that specializes in Station-service?</t>
-        </is>
-      </c>
+          <t>m`tmdy@ rds is a gas station located in Rades, Tunisia. It offers a variety of fuel options and services, including gasoline, diesel, and LPG. The station is conveniently located near major roads, making it easy to access from all parts of the city.</t>
+        </is>
+      </c>
+      <c r="AA81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -9199,16 +8831,12 @@
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for something fun to do, check out Rades Meliane arret de bus located at Rades Meliane arret de bus, Rades. 
-This top-rated destination is perfect for Arret de bus lovers. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.7631986, 10.2863395.</t>
-        </is>
-      </c>
-      <c r="AA82" t="inlineStr">
-        <is>
-          <t>Where is the popular arret de bus location for Arret de bus enthusiasts in Rades and what makes it a must-visit spot?</t>
-        </is>
-      </c>
+          <t>**Location:** Rades, Tunisia
+**Coordinates:** (36.7631986, 10.2863395)
+Rades Meliane is a bus stop in Rades, Tunisia, located at the intersection of Rue Mongi Slim and Rue Mongi Chadli. It provides easy access to public transportation in the area, connecting passengers to various destinations throughout the city.</t>
+        </is>
+      </c>
+      <c r="AA82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -9304,15 +8932,10 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for a Guichet de gare, check out Arret du train aeroport located at 13 Rue du Train, Rades 2040. 
-This top-rated destination is perfect for Guichet de gare lovers and has a rating of 4.5. To get there, use these GPS coordinates: 36.7755673, 10.2817576.</t>
-        </is>
-      </c>
-      <c r="AA83" t="inlineStr">
-        <is>
-          <t>Where can you find a highly rated "Guichet de gare" (train ticket office) with GPS coordinates 36.7755673, 10.2817576?</t>
-        </is>
-      </c>
+          <t>The Arret du train aeroport is a train station located at 13 Rue du Train, Rades 2040, Tunisia. It offers train services to and from the airport, making it a convenient option for travelers. The station is located at the coordinates (36.7755673, 10.2817576) and has a rating of 4.5 out of 5 on Google.</t>
+        </is>
+      </c>
+      <c r="AA83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -9408,14 +9031,10 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for a top-rated Gare, check out Rades Meliane located at Rades Meliane, Rades. This must-visit spot offers a range of Gare to choose from. With a rating of 3.8, it's a must-visit spot. To get there, use these GPS coordinates: (36.7631986, 10.2863395).</t>
-        </is>
-      </c>
-      <c r="AA84" t="inlineStr">
-        <is>
-          <t>Where can you find a top-rated Gare in Rades with GPS coordinates of (36.7631986, 10.2863395)?</t>
-        </is>
-      </c>
+          <t>Located in Rades, Rades Meliane is a train station offering a crucial transportation hub for the city. With its convenient location and efficient services, it plays a vital role in connecting Rades to other destinations.</t>
+        </is>
+      </c>
+      <c r="AA84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -9519,16 +9138,10 @@
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for something fun to do, check out Gare de Rades located at Q79C+JF2 Gare de Rades, Av. Mohamed Ali, Rades. 
-This top-rated destination is perfect for Station-service lovers and offers a range of Station-service to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.769232995235, 10.27256297426. For more details, visit their website at http://www.sncft.com.tn/ or call them at 71 441 388.</t>
-        </is>
-      </c>
-      <c r="AA85" t="inlineStr">
-        <is>
-          <t>Where can you find a top-rated destination in Rades that offers a variety of Station-service options, making it a must-visit spot for Station-service enthusiasts?</t>
-        </is>
-      </c>
+          <t>Gare de Rades is a railway station located in the city of Rades, Tunisia. It is situated at coordinates (36.769232995235, 10.27256297426) and has an overall rating of 4.0 based on 10 reviews. The station is owned and operated by Gare de Rades (proprietaire) and offers a range of services to travelers.</t>
+        </is>
+      </c>
+      <c r="AA85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -9624,14 +9237,11 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for something fun to do, check out rds lshTy' mwqf bS located at rds lshTy' mwqf bS, Rades. This top-rated destination is perfect for Arret de bus lovers. With a rating of 3.9, it's a must-visit spot. To get there, use these GPS coordinates: 36.7746009, 10.2756488.</t>
-        </is>
-      </c>
-      <c r="AA86" t="inlineStr">
-        <is>
-          <t>Where can you find a popular destination for Arret de bus enthusiasts with high ratings located at specific GPS coordinates?</t>
-        </is>
-      </c>
+          <t>**Arret de bus rds lshTy' mwqf bS**
+This bus stop is situated at (36.7746009, 10.2756488), in Rades. With a 3.9 rating, It offers shelter to bus passengers and provides easy access to public transportation in the area.</t>
+        </is>
+      </c>
+      <c r="AA86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -9727,14 +9337,10 @@
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for a reliable taxi station, check out Station Rades Meliane (Vers MIAMI Morouj 1) at Q79G+5RW, Av. De La Republique, Rades. This top-rated taxi station has a rating of 3.0. To get there, use these GPS coordinates: 36.739555484028, 10.252175587347.</t>
-        </is>
-      </c>
-      <c r="AA87" t="inlineStr">
-        <is>
-          <t>Where in Rades can you find the top-rated taxi station with GPS coordinates 36.739555484028, 10.252175587347?</t>
-        </is>
-      </c>
+          <t>Located in Rades, Station Rades Meliane offers taxi services. Its exact location is at 36.739555484028, 10.252175587347.</t>
+        </is>
+      </c>
+      <c r="AA87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -9830,14 +9436,10 @@
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>If you're in Rades and looking for transportation, check out the top-rated Rades Meliane arret de bus at Rades Meliane arret de bus, Rades. This main category is Arret de bus, and its rating is 4.0. For more details, visit their website at https://www.google.com/maps/place/Rades+Meliane+arr%C3%AAt+de+bus/data=!4m7!3m6!1s0x12fd498eb7b2e02f:0x6e75d10139dbd962!8m2!3d36.7593441!4d10.28934!16s%2Fg%2F1vkr0q58!19sChIJL-Cyt45J_RIRYtnbOQHRdW4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at the given phone number.</t>
-        </is>
-      </c>
-      <c r="AA88" t="inlineStr">
-        <is>
-          <t>Where can you find the highly-rated Rades Meliane arret de bus, suitable for transportation while visiting Rades?</t>
-        </is>
-      </c>
+          <t>Rades Meliane arret de bus is a bus stop located in Rades, Tunisia. It is situated at coordinates (36.7631986, 10.2863395). The stop is well-rated with a 4.0 rating. However, there is no additional information available about the amenities or services offered at the bus stop.</t>
+        </is>
+      </c>
+      <c r="AA88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -9929,14 +9531,10 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for something fun to do, check out Terminus 19D, 39 located at Terminus 19D, 39, Rades 2040. This top-rated destination is perfect for Arret de bus lovers and offers a range of Arret de bus to choose from. With a rating of 3.7, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Terminus+19D,+39/data=!4m7!3m6!1s0x12fd36025a56849d:0x37342caa8f902b4b!8m2!3d36.7603895!4d10.2580614!16s%2Fg%2F1td8m_yc!19sChIJnYRWWgI2_RIRSyuQj6osNDc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at [phone number].</t>
-        </is>
-      </c>
-      <c r="AA89" t="inlineStr">
-        <is>
-          <t>Where in Rades can you find a top-rated destination with a range of Arret de bus options for Arret de bus enthusiasts?</t>
-        </is>
-      </c>
+          <t>Terminus 19D, 39 is a popular bus stop located in Rades, Tunisia, known for its accessibility and convenience. Located at longitude 10.2817576 and latitude 36.7755673, it serves as a central hub for local bus routes, making it easy for commuters to travel to and from different parts of the city. With a rating of 3.7 based on three reviews, it is generally well-received by users who appreciate its efficiency and strategic location.</t>
+        </is>
+      </c>
+      <c r="AA89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -10032,16 +9630,10 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for something fun to do, check out Station de Bus located at Station de Bus, 23 Av. Farhat Hached, Rades 2040. 
-This top-rated destination is perfect for Compagnie d'autobus lovers and offers a range of Compagnie d'autobus to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.767420245379, 10.265907231436. For more details, visit their website at https://www.google.com/maps/place/Station+de+Bus/data=!4m7!3m6!1s0x12fd4b8923a6650f:0x733ab76c491c5cdb!8m2!3d36.7671766!4d10.2701398!16s%2Fg%2F11kh6lbl0m!19sChIJD2WmI4lL_RIR21wcSWy3OnM?authuser=0&amp;hl=fr&amp;rclk=1.</t>
-        </is>
-      </c>
-      <c r="AA90" t="inlineStr">
-        <is>
-          <t>Where can you find a top-rated destination in Rades known for its diverse selection of Compagnie d'autobus options?</t>
-        </is>
-      </c>
+          <t>Station de Bus is a bus station located at the address 23 Av. Farhat Hached, Rades 2040. It offers bus services to various destinations, and is known for its convenient location and reliable service. The station is rated 4.0 out of 5 by users, and receives positive feedback for its cleanliness, safety, and friendly staff.</t>
+        </is>
+      </c>
+      <c r="AA90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -10145,14 +9737,10 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>If you're in rades and looking for a top-rated Station-service, check out Gare de Rades located at Q79C+JF2 Gare de Rades, Av. Mohamed Ali, Rades. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.769232995235, 10.27256297426. For more details, visit their website at http://www.sncft.com.tn/ or call them at 71 441 388.</t>
-        </is>
-      </c>
-      <c r="AA91" t="inlineStr">
-        <is>
-          <t>Where is the top-rated, must-visit Station-service in Rades, Tunisia, located and what sets it apart from others?</t>
-        </is>
-      </c>
+          <t>The Gare de Rades is a railway station located in Rades, Tunisia. It is the main railway station in the city and serves as a hub for regional and national rail services. The station offers a range of amenities, including a ticket office, waiting rooms, and a cafe. It is situated at (36.769232995235, 10.27256297426) and can be reached by car or public transportation.</t>
+        </is>
+      </c>
+      <c r="AA91" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
